--- a/Analyzed/try2/data_2012.xlsx
+++ b/Analyzed/try2/data_2012.xlsx
@@ -541,13 +541,13 @@
         <v>960.597</v>
       </c>
       <c r="L2">
-        <v>62.90000000000001</v>
+        <v>2201.5</v>
       </c>
       <c r="M2">
         <v>57.7726658379646</v>
       </c>
       <c r="N2">
-        <v>114.04</v>
+        <v>3307.16</v>
       </c>
       <c r="O2">
         <v>1022.14</v>
@@ -632,13 +632,13 @@
         <v>1443.125</v>
       </c>
       <c r="L3">
-        <v>55.1</v>
+        <v>1928.5</v>
       </c>
       <c r="M3">
         <v>71.19721015630887</v>
       </c>
       <c r="N3">
-        <v>93.85000000000001</v>
+        <v>2721.65</v>
       </c>
       <c r="O3">
         <v>1177.15</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>2030.23</v>
       </c>
       <c r="L4">
-        <v>52.8</v>
+        <v>1848</v>
       </c>
       <c r="M4">
         <v>65.3597923785718</v>
       </c>
       <c r="N4">
-        <v>69.34</v>
+        <v>2010.86</v>
       </c>
       <c r="O4">
         <v>993.9299999999999</v>
@@ -762,10 +762,10 @@
         <v>2</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>5</v>
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1210.321</v>
       </c>
       <c r="L5">
-        <v>50.5</v>
+        <v>1767.5</v>
       </c>
       <c r="M5">
         <v>58.41691546340254</v>
       </c>
       <c r="N5">
-        <v>79.19</v>
+        <v>2296.509999999999</v>
       </c>
       <c r="O5">
         <v>962.99</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>1860.508</v>
       </c>
       <c r="L6">
-        <v>56.8</v>
+        <v>1988</v>
       </c>
       <c r="M6">
         <v>65.57764326714641</v>
       </c>
       <c r="N6">
-        <v>62.14</v>
+        <v>1802.06</v>
       </c>
       <c r="O6">
         <v>1194.69</v>
@@ -944,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>1477.852</v>
       </c>
       <c r="L7">
-        <v>55.40000000000001</v>
+        <v>1939</v>
       </c>
       <c r="M7">
         <v>68.57190322808596</v>
       </c>
       <c r="N7">
-        <v>80.77000000000001</v>
+        <v>2342.33</v>
       </c>
       <c r="O7">
         <v>916.73</v>
@@ -1047,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>703.769</v>
       </c>
       <c r="L8">
-        <v>56.2</v>
+        <v>1967</v>
       </c>
       <c r="M8">
         <v>75.81837359779441</v>
       </c>
       <c r="N8">
-        <v>19.49000000000001</v>
+        <v>565.2100000000002</v>
       </c>
       <c r="O8">
         <v>1089.27</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1178,13 +1178,13 @@
         <v>1157.977</v>
       </c>
       <c r="L9">
-        <v>50.6</v>
+        <v>1771</v>
       </c>
       <c r="M9">
         <v>69.01982703254863</v>
       </c>
       <c r="N9">
-        <v>-4.819999999999999</v>
+        <v>-139.78</v>
       </c>
       <c r="O9">
         <v>1017.24</v>
